--- a/data/sp500_gen.xlsx
+++ b/data/sp500_gen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernando/code/cifo/cifo_project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TITA\OneDrive\Faculdade\2 Mestrado\1º semestre\CIFO\Project\CIFO_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9AE1EB-64C4-A243-9B18-AE6EFFED03DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{F9F358A1-0020-409A-9111-F2194C93618E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="2560" windowWidth="27640" windowHeight="16940" xr2:uid="{E3E6A7F1-5823-EF49-8B27-5C5337D098C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E3E6A7F1-5823-EF49-8B27-5C5337D098C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6369,16 +6369,16 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -6408,12 +6408,12 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="e">
         <f ca="1">RANDBETWEEN(ABS(D2)*0.2,ABS(D2)*0.9) + RAND()</f>
-        <v>3.8871408497536382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -6426,12 +6426,12 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="e">
         <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(ABS(D3)*0.2,ABS(D3)*0.9) + RAND()</f>
-        <v>8.730167636519381</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -6444,12 +6444,12 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>15.315659764690102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6462,12 +6462,12 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3982040093628587</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -6480,12 +6480,12 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>28.781523170850978</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -6498,12 +6498,12 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1.532189302210909</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -6516,12 +6516,12 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8687299144975036</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -6534,12 +6534,12 @@
       <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8543566614868496</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -6552,12 +6552,12 @@
       <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6315587916787515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -6570,12 +6570,12 @@
       <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3359105384333652</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -6588,12 +6588,12 @@
       <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0751366904453339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -6606,12 +6606,12 @@
       <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7122931951965308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -6624,12 +6624,12 @@
       <c r="D14" t="s">
         <v>55</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1587753427500487</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -6642,12 +6642,12 @@
       <c r="D15" t="s">
         <v>59</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>18.312874878569989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -6660,12 +6660,12 @@
       <c r="D16" t="s">
         <v>63</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8595627085287276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -6678,12 +6678,12 @@
       <c r="D17" t="s">
         <v>47</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7650522963815782</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -6696,12 +6696,12 @@
       <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7786831067200812</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -6714,12 +6714,12 @@
       <c r="D19" t="s">
         <v>74</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2255192493837264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -6732,12 +6732,12 @@
       <c r="D20" t="s">
         <v>78</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0905542691891119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -6750,12 +6750,12 @@
       <c r="D21" t="s">
         <v>82</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>10.35413107321458</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -6768,12 +6768,12 @@
       <c r="D22" t="s">
         <v>86</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5866428811589217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -6786,12 +6786,12 @@
       <c r="D23" t="s">
         <v>90</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3675103944931948</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -6804,12 +6804,12 @@
       <c r="D24" t="s">
         <v>94</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7044626259036897</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -6822,12 +6822,12 @@
       <c r="D25" t="s">
         <v>98</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3749432549927532</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -6840,12 +6840,12 @@
       <c r="D26" t="s">
         <v>102</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2677803025571051</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -6858,12 +6858,12 @@
       <c r="D27" t="s">
         <v>106</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2001619769354943</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>107</v>
       </c>
@@ -6876,12 +6876,12 @@
       <c r="D28" t="s">
         <v>110</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>38.858754687425055</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>111</v>
       </c>
@@ -6894,12 +6894,12 @@
       <c r="D29" t="s">
         <v>114</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>12.872728114121447</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>115</v>
       </c>
@@ -6912,12 +6912,12 @@
       <c r="D30" t="s">
         <v>118</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2750570177202256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>119</v>
       </c>
@@ -6930,12 +6930,12 @@
       <c r="D31" t="s">
         <v>122</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>10.33210672567939</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>123</v>
       </c>
@@ -6948,12 +6948,12 @@
       <c r="D32" t="s">
         <v>126</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4104799219319304</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>127</v>
       </c>
@@ -6966,12 +6966,12 @@
       <c r="D33" t="s">
         <v>130</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>10.001224598590726</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -6984,12 +6984,12 @@
       <c r="D34" t="s">
         <v>134</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6376392549530501</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>135</v>
       </c>
@@ -7002,12 +7002,12 @@
       <c r="D35" t="s">
         <v>138</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>15.277945648821106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>139</v>
       </c>
@@ -7020,12 +7020,12 @@
       <c r="D36" t="s">
         <v>142</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8318567591286126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>143</v>
       </c>
@@ -7038,12 +7038,12 @@
       <c r="D37" t="s">
         <v>146</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8413613024473392</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -7056,12 +7056,12 @@
       <c r="D38" t="s">
         <v>150</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1037418583789371</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -7074,12 +7074,12 @@
       <c r="D39" t="s">
         <v>154</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>19.463076082845234</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>155</v>
       </c>
@@ -7092,12 +7092,12 @@
       <c r="D40" t="s">
         <v>158</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3133397528480848</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>159</v>
       </c>
@@ -7110,12 +7110,12 @@
       <c r="D41" t="s">
         <v>162</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4542812166979107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>163</v>
       </c>
@@ -7128,12 +7128,12 @@
       <c r="D42" t="s">
         <v>166</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5811591087931118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>167</v>
       </c>
@@ -7146,12 +7146,12 @@
       <c r="D43" t="s">
         <v>170</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>12.593567005793643</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>171</v>
       </c>
@@ -7164,12 +7164,12 @@
       <c r="D44" t="s">
         <v>174</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1115768274226348</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>175</v>
       </c>
@@ -7182,12 +7182,12 @@
       <c r="D45" t="s">
         <v>178</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5961332508770463</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>179</v>
       </c>
@@ -7200,12 +7200,12 @@
       <c r="D46" t="s">
         <v>182</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9083712289609407</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>183</v>
       </c>
@@ -7218,12 +7218,12 @@
       <c r="D47" t="s">
         <v>186</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7753426722278469</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>187</v>
       </c>
@@ -7236,12 +7236,12 @@
       <c r="D48" t="s">
         <v>190</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2885619744646641</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>191</v>
       </c>
@@ -7254,12 +7254,12 @@
       <c r="D49" t="s">
         <v>194</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>15.161202370898723</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>195</v>
       </c>
@@ -7272,12 +7272,12 @@
       <c r="D50" t="s">
         <v>198</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4107291728038511</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>199</v>
       </c>
@@ -7290,12 +7290,12 @@
       <c r="D51" t="s">
         <v>202</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4967307512790686</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>203</v>
       </c>
@@ -7308,12 +7308,12 @@
       <c r="D52" t="s">
         <v>206</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>14.529908245060028</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>207</v>
       </c>
@@ -7326,12 +7326,12 @@
       <c r="D53" t="s">
         <v>210</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0908819680992559</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>211</v>
       </c>
@@ -7344,12 +7344,12 @@
       <c r="D54" t="s">
         <v>146</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2183422479764383</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>214</v>
       </c>
@@ -7362,12 +7362,12 @@
       <c r="D55" t="s">
         <v>217</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4267021010181555</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>218</v>
       </c>
@@ -7380,12 +7380,12 @@
       <c r="D56" t="s">
         <v>221</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9502771715988292</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -7398,12 +7398,12 @@
       <c r="D57" t="s">
         <v>225</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8801606015053114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>226</v>
       </c>
@@ -7416,12 +7416,12 @@
       <c r="D58" t="s">
         <v>229</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7504907043411486</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>230</v>
       </c>
@@ -7434,12 +7434,12 @@
       <c r="D59" t="s">
         <v>233</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1688207342598365</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>234</v>
       </c>
@@ -7452,12 +7452,12 @@
       <c r="D60" t="s">
         <v>237</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8144256901780764</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>238</v>
       </c>
@@ -7470,12 +7470,12 @@
       <c r="D61" t="s">
         <v>241</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3054773114150304</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>242</v>
       </c>
@@ -7488,12 +7488,12 @@
       <c r="D62" t="s">
         <v>245</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>11.875669767032212</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>246</v>
       </c>
@@ -7506,12 +7506,12 @@
       <c r="D63" t="s">
         <v>249</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8831913469357557</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>250</v>
       </c>
@@ -7524,12 +7524,12 @@
       <c r="D64" t="s">
         <v>253</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7431302147780068</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>254</v>
       </c>
@@ -7542,12 +7542,12 @@
       <c r="D65" t="s">
         <v>257</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3215463900030935</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>258</v>
       </c>
@@ -7560,12 +7560,12 @@
       <c r="D66" t="s">
         <v>261</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8176024745960149</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>262</v>
       </c>
@@ -7578,12 +7578,12 @@
       <c r="D67" t="s">
         <v>265</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="e">
         <f t="shared" ref="E67:E130" ca="1" si="1">RANDBETWEEN(ABS(D67)*0.2,ABS(D67)*0.9) + RAND()</f>
-        <v>1.2419622600583158</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>266</v>
       </c>
@@ -7596,12 +7596,12 @@
       <c r="D68" t="s">
         <v>269</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>9.947218964882607</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>270</v>
       </c>
@@ -7614,12 +7614,12 @@
       <c r="D69" t="s">
         <v>273</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>15.340660933849087</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>274</v>
       </c>
@@ -7632,12 +7632,12 @@
       <c r="D70" t="s">
         <v>277</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>7.967286674629622</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>278</v>
       </c>
@@ -7650,12 +7650,12 @@
       <c r="D71" t="s">
         <v>281</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6300744657380735</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>282</v>
       </c>
@@ -7668,12 +7668,12 @@
       <c r="D72" t="s">
         <v>285</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0864227450171375</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>286</v>
       </c>
@@ -7686,12 +7686,12 @@
       <c r="D73" t="s">
         <v>289</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9190815202432878</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>290</v>
       </c>
@@ -7704,12 +7704,12 @@
       <c r="D74" t="s">
         <v>293</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5006427102952173</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>294</v>
       </c>
@@ -7722,12 +7722,12 @@
       <c r="D75" t="s">
         <v>297</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3894875791365848</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>298</v>
       </c>
@@ -7740,12 +7740,12 @@
       <c r="D76" t="s">
         <v>301</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>3.574603560180019</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>302</v>
       </c>
@@ -7758,12 +7758,12 @@
       <c r="D77" t="s">
         <v>305</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5434767405438494</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>306</v>
       </c>
@@ -7776,12 +7776,12 @@
       <c r="D78" t="s">
         <v>309</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9325252459968945</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>310</v>
       </c>
@@ -7794,12 +7794,12 @@
       <c r="D79" t="s">
         <v>313</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>29.789015534586259</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>314</v>
       </c>
@@ -7812,12 +7812,12 @@
       <c r="D80" t="s">
         <v>317</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7285143515034327</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>318</v>
       </c>
@@ -7830,12 +7830,12 @@
       <c r="D81" t="s">
         <v>321</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3945430990390051</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>322</v>
       </c>
@@ -7848,12 +7848,12 @@
       <c r="D82" t="s">
         <v>325</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8389917370963436</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>326</v>
       </c>
@@ -7866,12 +7866,12 @@
       <c r="D83" t="s">
         <v>329</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>13.719565530546454</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>330</v>
       </c>
@@ -7884,12 +7884,12 @@
       <c r="D84" t="s">
         <v>333</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>15.863707621536422</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>334</v>
       </c>
@@ -7902,12 +7902,12 @@
       <c r="D85" t="s">
         <v>134</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9065489204350432</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>337</v>
       </c>
@@ -7920,12 +7920,12 @@
       <c r="D86" t="s">
         <v>340</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>1.785744815046149</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>341</v>
       </c>
@@ -7938,12 +7938,12 @@
       <c r="D87" t="s">
         <v>344</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1412535184461996</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>345</v>
       </c>
@@ -7956,12 +7956,12 @@
       <c r="D88" t="s">
         <v>348</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4746924648217932</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>349</v>
       </c>
@@ -7974,12 +7974,12 @@
       <c r="D89" t="s">
         <v>352</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3245285199346215</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>353</v>
       </c>
@@ -7992,12 +7992,12 @@
       <c r="D90" t="s">
         <v>356</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>2.479486028292603</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>357</v>
       </c>
@@ -8010,12 +8010,12 @@
       <c r="D91" t="s">
         <v>360</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0803962763719031</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>361</v>
       </c>
@@ -8028,12 +8028,12 @@
       <c r="D92" t="s">
         <v>364</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>6.7481877805087755</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>365</v>
       </c>
@@ -8046,12 +8046,12 @@
       <c r="D93" t="s">
         <v>368</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8233095434578335</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>369</v>
       </c>
@@ -8064,12 +8064,12 @@
       <c r="D94" t="s">
         <v>372</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8208287671869696</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>373</v>
       </c>
@@ -8082,12 +8082,12 @@
       <c r="D95" t="s">
         <v>376</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8973225529325539</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>377</v>
       </c>
@@ -8100,12 +8100,12 @@
       <c r="D96" t="s">
         <v>380</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2716884335553909</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>381</v>
       </c>
@@ -8118,12 +8118,12 @@
       <c r="D97" t="s">
         <v>384</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>10.133951406302174</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>385</v>
       </c>
@@ -8136,12 +8136,12 @@
       <c r="D98" t="s">
         <v>388</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9794026955331052</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>389</v>
       </c>
@@ -8154,12 +8154,12 @@
       <c r="D99" t="s">
         <v>392</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>5.19002970107669</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>393</v>
       </c>
@@ -8172,12 +8172,12 @@
       <c r="D100" t="s">
         <v>396</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>12.055669737458624</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>397</v>
       </c>
@@ -8190,12 +8190,12 @@
       <c r="D101" t="s">
         <v>400</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>16.45092364826742</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>401</v>
       </c>
@@ -8208,12 +8208,12 @@
       <c r="D102" t="s">
         <v>404</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7329852438718008</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>405</v>
       </c>
@@ -8226,12 +8226,12 @@
       <c r="D103" t="s">
         <v>408</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9715550814464491</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>409</v>
       </c>
@@ -8244,12 +8244,12 @@
       <c r="D104" t="s">
         <v>412</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9941713795972955</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>413</v>
       </c>
@@ -8262,12 +8262,12 @@
       <c r="D105" t="s">
         <v>416</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1672976708489919</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>417</v>
       </c>
@@ -8280,12 +8280,12 @@
       <c r="D106" t="s">
         <v>420</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0556958178024467</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>421</v>
       </c>
@@ -8298,12 +8298,12 @@
       <c r="D107" t="s">
         <v>424</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1859336259996214</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>425</v>
       </c>
@@ -8316,12 +8316,12 @@
       <c r="D108" t="s">
         <v>428</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0003123180844589</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>429</v>
       </c>
@@ -8334,12 +8334,12 @@
       <c r="D109" t="s">
         <v>432</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>17.096793957376889</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>433</v>
       </c>
@@ -8352,12 +8352,12 @@
       <c r="D110" t="s">
         <v>436</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9767678110392586</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>437</v>
       </c>
@@ -8370,12 +8370,12 @@
       <c r="D111" t="s">
         <v>440</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>23.331389897675056</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>441</v>
       </c>
@@ -8388,12 +8388,12 @@
       <c r="D112" t="s">
         <v>444</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4269399261764484</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>445</v>
       </c>
@@ -8406,12 +8406,12 @@
       <c r="D113" t="s">
         <v>448</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>10.192400197297271</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>449</v>
       </c>
@@ -8424,12 +8424,12 @@
       <c r="D114" t="s">
         <v>452</v>
       </c>
-      <c r="E114">
+      <c r="E114" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9969807232879666</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>453</v>
       </c>
@@ -8442,12 +8442,12 @@
       <c r="D115" t="s">
         <v>456</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8841463201688162</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>457</v>
       </c>
@@ -8460,12 +8460,12 @@
       <c r="D116" t="s">
         <v>460</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5585890778523677</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>461</v>
       </c>
@@ -8478,12 +8478,12 @@
       <c r="D117" t="s">
         <v>464</v>
       </c>
-      <c r="E117">
+      <c r="E117" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4707493621588883</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>465</v>
       </c>
@@ -8496,12 +8496,12 @@
       <c r="D118" t="s">
         <v>468</v>
       </c>
-      <c r="E118">
+      <c r="E118" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>19.986908897483858</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>469</v>
       </c>
@@ -8514,12 +8514,12 @@
       <c r="D119" t="s">
         <v>472</v>
       </c>
-      <c r="E119">
+      <c r="E119" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6592822491118486</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>473</v>
       </c>
@@ -8532,12 +8532,12 @@
       <c r="D120" t="s">
         <v>476</v>
       </c>
-      <c r="E120">
+      <c r="E120" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1245011022692477</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>477</v>
       </c>
@@ -8550,12 +8550,12 @@
       <c r="D121" t="s">
         <v>480</v>
       </c>
-      <c r="E121">
+      <c r="E121" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>7.438113353567652</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>481</v>
       </c>
@@ -8568,12 +8568,12 @@
       <c r="D122" t="s">
         <v>484</v>
       </c>
-      <c r="E122">
+      <c r="E122" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>6.83031120264984</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>485</v>
       </c>
@@ -8586,12 +8586,12 @@
       <c r="D123" t="s">
         <v>488</v>
       </c>
-      <c r="E123">
+      <c r="E123" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>3.477297943072045</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>489</v>
       </c>
@@ -8604,12 +8604,12 @@
       <c r="D124" t="s">
         <v>492</v>
       </c>
-      <c r="E124">
+      <c r="E124" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3427176783525177</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>493</v>
       </c>
@@ -8622,12 +8622,12 @@
       <c r="D125" t="s">
         <v>496</v>
       </c>
-      <c r="E125">
+      <c r="E125" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6240710041888482</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>497</v>
       </c>
@@ -8640,12 +8640,12 @@
       <c r="D126" t="s">
         <v>500</v>
       </c>
-      <c r="E126">
+      <c r="E126" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>16.24936479581838</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>501</v>
       </c>
@@ -8658,12 +8658,12 @@
       <c r="D127" t="s">
         <v>504</v>
       </c>
-      <c r="E127">
+      <c r="E127" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7559682061383</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>505</v>
       </c>
@@ -8676,12 +8676,12 @@
       <c r="D128" t="s">
         <v>508</v>
       </c>
-      <c r="E128">
+      <c r="E128" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>10.118558531843334</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>509</v>
       </c>
@@ -8694,12 +8694,12 @@
       <c r="D129" t="s">
         <v>512</v>
       </c>
-      <c r="E129">
+      <c r="E129" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>11.477232555009543</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>513</v>
       </c>
@@ -8712,12 +8712,12 @@
       <c r="D130" t="s">
         <v>516</v>
       </c>
-      <c r="E130">
+      <c r="E130" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>18.23871845892366</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>517</v>
       </c>
@@ -8730,12 +8730,12 @@
       <c r="D131" t="s">
         <v>520</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="e">
         <f t="shared" ref="E131:E194" ca="1" si="2">RANDBETWEEN(ABS(D131)*0.2,ABS(D131)*0.9) + RAND()</f>
-        <v>1.035624462391469</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>521</v>
       </c>
@@ -8748,12 +8748,12 @@
       <c r="D132" t="s">
         <v>524</v>
       </c>
-      <c r="E132">
+      <c r="E132" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9057872426133586</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>525</v>
       </c>
@@ -8766,12 +8766,12 @@
       <c r="D133" t="s">
         <v>528</v>
       </c>
-      <c r="E133">
+      <c r="E133" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.2508541042603705</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>529</v>
       </c>
@@ -8784,12 +8784,12 @@
       <c r="D134" t="s">
         <v>532</v>
       </c>
-      <c r="E134">
+      <c r="E134" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6191284133022159</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>533</v>
       </c>
@@ -8802,12 +8802,12 @@
       <c r="D135" t="s">
         <v>535</v>
       </c>
-      <c r="E135">
+      <c r="E135" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7352510169502025</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>536</v>
       </c>
@@ -8820,12 +8820,12 @@
       <c r="D136" t="s">
         <v>539</v>
       </c>
-      <c r="E136">
+      <c r="E136" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0048927590782712</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>540</v>
       </c>
@@ -8838,12 +8838,12 @@
       <c r="D137" t="s">
         <v>543</v>
       </c>
-      <c r="E137">
+      <c r="E137" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7994464828636536</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>544</v>
       </c>
@@ -8856,12 +8856,12 @@
       <c r="D138" t="s">
         <v>547</v>
       </c>
-      <c r="E138">
+      <c r="E138" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>8.4475417519678775</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>548</v>
       </c>
@@ -8874,12 +8874,12 @@
       <c r="D139" t="s">
         <v>551</v>
       </c>
-      <c r="E139">
+      <c r="E139" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>2.8818215974650632</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>552</v>
       </c>
@@ -8892,12 +8892,12 @@
       <c r="D140" t="s">
         <v>555</v>
       </c>
-      <c r="E140">
+      <c r="E140" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.9906679464189745</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>556</v>
       </c>
@@ -8910,12 +8910,12 @@
       <c r="D141" t="s">
         <v>559</v>
       </c>
-      <c r="E141">
+      <c r="E141" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0727749153433594</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>560</v>
       </c>
@@ -8928,12 +8928,12 @@
       <c r="D142" t="s">
         <v>563</v>
       </c>
-      <c r="E142">
+      <c r="E142" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>6.7689164451841881</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>564</v>
       </c>
@@ -8946,12 +8946,12 @@
       <c r="D143" t="s">
         <v>567</v>
       </c>
-      <c r="E143">
+      <c r="E143" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2955851947107195</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>568</v>
       </c>
@@ -8964,12 +8964,12 @@
       <c r="D144" t="s">
         <v>571</v>
       </c>
-      <c r="E144">
+      <c r="E144" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>10.151901002750483</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>572</v>
       </c>
@@ -8982,12 +8982,12 @@
       <c r="D145" t="s">
         <v>575</v>
       </c>
-      <c r="E145">
+      <c r="E145" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>8.0004559767230283</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>576</v>
       </c>
@@ -9000,12 +9000,12 @@
       <c r="D146" t="s">
         <v>579</v>
       </c>
-      <c r="E146">
+      <c r="E146" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9584203124903934</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>580</v>
       </c>
@@ -9018,12 +9018,12 @@
       <c r="D147" t="s">
         <v>583</v>
       </c>
-      <c r="E147">
+      <c r="E147" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>8.5839930712677468</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>584</v>
       </c>
@@ -9036,12 +9036,12 @@
       <c r="D148" t="s">
         <v>587</v>
       </c>
-      <c r="E148">
+      <c r="E148" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>15.043579282654742</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>588</v>
       </c>
@@ -9054,12 +9054,12 @@
       <c r="D149" t="s">
         <v>591</v>
       </c>
-      <c r="E149">
+      <c r="E149" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>16.964980592803276</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>592</v>
       </c>
@@ -9072,12 +9072,12 @@
       <c r="D150" t="s">
         <v>594</v>
       </c>
-      <c r="E150">
+      <c r="E150" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>4.3601775330555004</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>595</v>
       </c>
@@ -9090,12 +9090,12 @@
       <c r="D151" t="s">
         <v>598</v>
       </c>
-      <c r="E151">
+      <c r="E151" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>2.1602221927100222</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>599</v>
       </c>
@@ -9108,12 +9108,12 @@
       <c r="D152" t="s">
         <v>602</v>
       </c>
-      <c r="E152">
+      <c r="E152" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4259879284426669</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>603</v>
       </c>
@@ -9126,12 +9126,12 @@
       <c r="D153" t="s">
         <v>606</v>
       </c>
-      <c r="E153">
+      <c r="E153" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>2.116911496046443</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>607</v>
       </c>
@@ -9144,12 +9144,12 @@
       <c r="D154" t="s">
         <v>610</v>
       </c>
-      <c r="E154">
+      <c r="E154" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.3119593985209077</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>611</v>
       </c>
@@ -9162,12 +9162,12 @@
       <c r="D155" t="s">
         <v>614</v>
       </c>
-      <c r="E155">
+      <c r="E155" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3038933985374008</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>615</v>
       </c>
@@ -9180,12 +9180,12 @@
       <c r="D156" t="s">
         <v>618</v>
       </c>
-      <c r="E156">
+      <c r="E156" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>4.5780935520990269</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>619</v>
       </c>
@@ -9198,12 +9198,12 @@
       <c r="D157" t="s">
         <v>622</v>
       </c>
-      <c r="E157">
+      <c r="E157" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>4.8405366785836472</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>623</v>
       </c>
@@ -9216,12 +9216,12 @@
       <c r="D158" t="s">
         <v>626</v>
       </c>
-      <c r="E158">
+      <c r="E158" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5768824227327585</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>627</v>
       </c>
@@ -9234,12 +9234,12 @@
       <c r="D159" t="s">
         <v>630</v>
       </c>
-      <c r="E159">
+      <c r="E159" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>3.671882593577545</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>631</v>
       </c>
@@ -9252,12 +9252,12 @@
       <c r="D160" t="s">
         <v>634</v>
       </c>
-      <c r="E160">
+      <c r="E160" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3461383794421935</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>635</v>
       </c>
@@ -9270,12 +9270,12 @@
       <c r="D161" t="s">
         <v>638</v>
       </c>
-      <c r="E161">
+      <c r="E161" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3871325342625966</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>639</v>
       </c>
@@ -9288,12 +9288,12 @@
       <c r="D162" t="s">
         <v>642</v>
       </c>
-      <c r="E162">
+      <c r="E162" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0873688179313588</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>643</v>
       </c>
@@ -9306,12 +9306,12 @@
       <c r="D163" t="s">
         <v>646</v>
       </c>
-      <c r="E163">
+      <c r="E163" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1392994719329512</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>647</v>
       </c>
@@ -9324,12 +9324,12 @@
       <c r="D164" t="s">
         <v>650</v>
       </c>
-      <c r="E164">
+      <c r="E164" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>16.674202220912889</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>651</v>
       </c>
@@ -9342,12 +9342,12 @@
       <c r="D165" t="s">
         <v>654</v>
       </c>
-      <c r="E165">
+      <c r="E165" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>20.900332904188009</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>655</v>
       </c>
@@ -9360,12 +9360,12 @@
       <c r="D166" t="s">
         <v>614</v>
       </c>
-      <c r="E166">
+      <c r="E166" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>3.6185859394716702</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>658</v>
       </c>
@@ -9378,12 +9378,12 @@
       <c r="D167" t="s">
         <v>661</v>
       </c>
-      <c r="E167">
+      <c r="E167" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8139556069060965</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>662</v>
       </c>
@@ -9396,12 +9396,12 @@
       <c r="D168" t="s">
         <v>665</v>
       </c>
-      <c r="E168">
+      <c r="E168" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>4.4977658378155256</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>666</v>
       </c>
@@ -9414,12 +9414,12 @@
       <c r="D169" t="s">
         <v>669</v>
       </c>
-      <c r="E169">
+      <c r="E169" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>2.7891974941445783</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>670</v>
       </c>
@@ -9432,12 +9432,12 @@
       <c r="D170" t="s">
         <v>673</v>
       </c>
-      <c r="E170">
+      <c r="E170" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5349294634920658</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>674</v>
       </c>
@@ -9450,12 +9450,12 @@
       <c r="D171" t="s">
         <v>677</v>
       </c>
-      <c r="E171">
+      <c r="E171" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7987836379956752</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>678</v>
       </c>
@@ -9468,12 +9468,12 @@
       <c r="D172" t="s">
         <v>681</v>
       </c>
-      <c r="E172">
+      <c r="E172" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>9.4132067077972437</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>682</v>
       </c>
@@ -9486,12 +9486,12 @@
       <c r="D173" t="s">
         <v>685</v>
       </c>
-      <c r="E173">
+      <c r="E173" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0844821689770354</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>686</v>
       </c>
@@ -9504,12 +9504,12 @@
       <c r="D174" t="s">
         <v>689</v>
       </c>
-      <c r="E174">
+      <c r="E174" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3763328692000301</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>690</v>
       </c>
@@ -9522,12 +9522,12 @@
       <c r="D175" t="s">
         <v>693</v>
       </c>
-      <c r="E175">
+      <c r="E175" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9356496483872085</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>694</v>
       </c>
@@ -9540,12 +9540,12 @@
       <c r="D176" t="s">
         <v>697</v>
       </c>
-      <c r="E176">
+      <c r="E176" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>1.164190349029028</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>698</v>
       </c>
@@ -9558,12 +9558,12 @@
       <c r="D177" t="s">
         <v>701</v>
       </c>
-      <c r="E177">
+      <c r="E177" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>5.172053466666239</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>702</v>
       </c>
@@ -9576,12 +9576,12 @@
       <c r="D178" t="s">
         <v>705</v>
       </c>
-      <c r="E178">
+      <c r="E178" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6665173628142531</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>706</v>
       </c>
@@ -9594,12 +9594,12 @@
       <c r="D179" t="s">
         <v>709</v>
       </c>
-      <c r="E179">
+      <c r="E179" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4786115742991477</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>710</v>
       </c>
@@ -9612,12 +9612,12 @@
       <c r="D180" t="s">
         <v>712</v>
       </c>
-      <c r="E180">
+      <c r="E180" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4207967135127166</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>713</v>
       </c>
@@ -9630,12 +9630,12 @@
       <c r="D181" t="s">
         <v>716</v>
       </c>
-      <c r="E181">
+      <c r="E181" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>11.342288790356474</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>717</v>
       </c>
@@ -9648,12 +9648,12 @@
       <c r="D182" t="s">
         <v>720</v>
       </c>
-      <c r="E182">
+      <c r="E182" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>13.537334708540174</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>721</v>
       </c>
@@ -9666,12 +9666,12 @@
       <c r="D183" t="s">
         <v>724</v>
       </c>
-      <c r="E183">
+      <c r="E183" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>4.4624042580832146</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>725</v>
       </c>
@@ -9684,12 +9684,12 @@
       <c r="D184" t="s">
         <v>728</v>
       </c>
-      <c r="E184">
+      <c r="E184" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>17.037289575172391</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>729</v>
       </c>
@@ -9702,12 +9702,12 @@
       <c r="D185" t="s">
         <v>732</v>
       </c>
-      <c r="E185">
+      <c r="E185" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>9.3341771416859132</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>733</v>
       </c>
@@ -9720,12 +9720,12 @@
       <c r="D186" t="s">
         <v>736</v>
       </c>
-      <c r="E186">
+      <c r="E186" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>2.3377773250222567</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>737</v>
       </c>
@@ -9738,12 +9738,12 @@
       <c r="D187" t="s">
         <v>740</v>
       </c>
-      <c r="E187">
+      <c r="E187" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0953928723918702</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>741</v>
       </c>
@@ -9756,12 +9756,12 @@
       <c r="D188" t="s">
         <v>744</v>
       </c>
-      <c r="E188">
+      <c r="E188" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3734823714174809</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>745</v>
       </c>
@@ -9774,12 +9774,12 @@
       <c r="D189" t="s">
         <v>748</v>
       </c>
-      <c r="E189">
+      <c r="E189" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0222386948203426</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>749</v>
       </c>
@@ -9792,12 +9792,12 @@
       <c r="D190" t="s">
         <v>752</v>
       </c>
-      <c r="E190">
+      <c r="E190" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>3.4225474493390813</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>753</v>
       </c>
@@ -9810,12 +9810,12 @@
       <c r="D191" t="s">
         <v>756</v>
       </c>
-      <c r="E191">
+      <c r="E191" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>15.600440749311311</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>757</v>
       </c>
@@ -9828,12 +9828,12 @@
       <c r="D192" t="s">
         <v>760</v>
       </c>
-      <c r="E192">
+      <c r="E192" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8613474115239139</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>761</v>
       </c>
@@ -9846,12 +9846,12 @@
       <c r="D193" t="s">
         <v>764</v>
       </c>
-      <c r="E193">
+      <c r="E193" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1712553444755756</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>765</v>
       </c>
@@ -9864,12 +9864,12 @@
       <c r="D194" t="s">
         <v>768</v>
       </c>
-      <c r="E194">
+      <c r="E194" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7732156413759403</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>769</v>
       </c>
@@ -9882,12 +9882,12 @@
       <c r="D195" t="s">
         <v>772</v>
       </c>
-      <c r="E195">
+      <c r="E195" t="e">
         <f t="shared" ref="E195:E258" ca="1" si="3">RANDBETWEEN(ABS(D195)*0.2,ABS(D195)*0.9) + RAND()</f>
-        <v>11.033258368195558</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>773</v>
       </c>
@@ -9900,12 +9900,12 @@
       <c r="D196" t="s">
         <v>776</v>
       </c>
-      <c r="E196">
+      <c r="E196" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1591371007808748</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>777</v>
       </c>
@@ -9918,12 +9918,12 @@
       <c r="D197" t="s">
         <v>779</v>
       </c>
-      <c r="E197">
+      <c r="E197" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5190969497040419</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>780</v>
       </c>
@@ -9936,12 +9936,12 @@
       <c r="D198" t="s">
         <v>783</v>
       </c>
-      <c r="E198">
+      <c r="E198" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>17.659731773640495</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>784</v>
       </c>
@@ -9954,12 +9954,12 @@
       <c r="D199" t="s">
         <v>787</v>
       </c>
-      <c r="E199">
+      <c r="E199" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>1.641610176640699</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>788</v>
       </c>
@@ -9972,12 +9972,12 @@
       <c r="D200" t="s">
         <v>791</v>
       </c>
-      <c r="E200">
+      <c r="E200" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>5.6040912512960537</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>792</v>
       </c>
@@ -9990,12 +9990,12 @@
       <c r="D201" t="s">
         <v>795</v>
       </c>
-      <c r="E201">
+      <c r="E201" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>25.191486227862768</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>796</v>
       </c>
@@ -10008,12 +10008,12 @@
       <c r="D202" t="s">
         <v>799</v>
       </c>
-      <c r="E202">
+      <c r="E202" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1614055235283276</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>800</v>
       </c>
@@ -10026,12 +10026,12 @@
       <c r="D203" t="s">
         <v>803</v>
       </c>
-      <c r="E203">
+      <c r="E203" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3525598564500398</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>804</v>
       </c>
@@ -10044,12 +10044,12 @@
       <c r="D204" t="s">
         <v>807</v>
       </c>
-      <c r="E204">
+      <c r="E204" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>12.819852846458502</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>808</v>
       </c>
@@ -10062,12 +10062,12 @@
       <c r="D205" t="s">
         <v>811</v>
       </c>
-      <c r="E205">
+      <c r="E205" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4685906148392749</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>812</v>
       </c>
@@ -10080,12 +10080,12 @@
       <c r="D206" t="s">
         <v>815</v>
       </c>
-      <c r="E206">
+      <c r="E206" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2698569530747359</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>816</v>
       </c>
@@ -10098,12 +10098,12 @@
       <c r="D207" t="s">
         <v>819</v>
       </c>
-      <c r="E207">
+      <c r="E207" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>9.9361216333031575</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>820</v>
       </c>
@@ -10116,12 +10116,12 @@
       <c r="D208" t="s">
         <v>823</v>
       </c>
-      <c r="E208">
+      <c r="E208" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8173524690196512</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>824</v>
       </c>
@@ -10134,12 +10134,12 @@
       <c r="D209" t="s">
         <v>827</v>
       </c>
-      <c r="E209">
+      <c r="E209" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9117330631140272</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>828</v>
       </c>
@@ -10152,12 +10152,12 @@
       <c r="D210" t="s">
         <v>831</v>
       </c>
-      <c r="E210">
+      <c r="E210" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1018961461776944</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>832</v>
       </c>
@@ -10170,12 +10170,12 @@
       <c r="D211" t="s">
         <v>835</v>
       </c>
-      <c r="E211">
+      <c r="E211" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>7.2788587501457878</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>836</v>
       </c>
@@ -10188,12 +10188,12 @@
       <c r="D212" t="s">
         <v>839</v>
       </c>
-      <c r="E212">
+      <c r="E212" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>10.971139338918222</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>840</v>
       </c>
@@ -10206,12 +10206,12 @@
       <c r="D213" t="s">
         <v>843</v>
       </c>
-      <c r="E213">
+      <c r="E213" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7269748887852678</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>844</v>
       </c>
@@ -10224,12 +10224,12 @@
       <c r="D214" t="s">
         <v>847</v>
       </c>
-      <c r="E214">
+      <c r="E214" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>1.790222658315205</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>848</v>
       </c>
@@ -10242,12 +10242,12 @@
       <c r="D215" t="s">
         <v>851</v>
       </c>
-      <c r="E215">
+      <c r="E215" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>11.849266661644695</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>852</v>
       </c>
@@ -10260,12 +10260,12 @@
       <c r="D216" t="s">
         <v>855</v>
       </c>
-      <c r="E216">
+      <c r="E216" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1514355264766447</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>856</v>
       </c>
@@ -10278,12 +10278,12 @@
       <c r="D217" t="s">
         <v>859</v>
       </c>
-      <c r="E217">
+      <c r="E217" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>10.166344621458419</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>860</v>
       </c>
@@ -10296,12 +10296,12 @@
       <c r="D218" t="s">
         <v>863</v>
       </c>
-      <c r="E218">
+      <c r="E218" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>4.7503172234497377</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>864</v>
       </c>
@@ -10314,12 +10314,12 @@
       <c r="D219" t="s">
         <v>867</v>
       </c>
-      <c r="E219">
+      <c r="E219" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>5.6874951326071788</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>868</v>
       </c>
@@ -10332,12 +10332,12 @@
       <c r="D220" t="s">
         <v>871</v>
       </c>
-      <c r="E220">
+      <c r="E220" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>9.5137437050396567</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>872</v>
       </c>
@@ -10350,12 +10350,12 @@
       <c r="D221" t="s">
         <v>875</v>
       </c>
-      <c r="E221">
+      <c r="E221" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7365382857487184</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>876</v>
       </c>
@@ -10368,12 +10368,12 @@
       <c r="D222" t="s">
         <v>879</v>
       </c>
-      <c r="E222">
+      <c r="E222" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>6.7035359257513694</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>880</v>
       </c>
@@ -10386,12 +10386,12 @@
       <c r="D223" t="s">
         <v>883</v>
       </c>
-      <c r="E223">
+      <c r="E223" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>1.743270279886509</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>884</v>
       </c>
@@ -10404,12 +10404,12 @@
       <c r="D224" t="s">
         <v>887</v>
       </c>
-      <c r="E224">
+      <c r="E224" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6527978198977618</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>888</v>
       </c>
@@ -10422,12 +10422,12 @@
       <c r="D225" t="s">
         <v>891</v>
       </c>
-      <c r="E225">
+      <c r="E225" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0477176248252844</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>892</v>
       </c>
@@ -10440,12 +10440,12 @@
       <c r="D226" t="s">
         <v>895</v>
       </c>
-      <c r="E226">
+      <c r="E226" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>3.97343280442613</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>896</v>
       </c>
@@ -10458,12 +10458,12 @@
       <c r="D227" t="s">
         <v>899</v>
       </c>
-      <c r="E227">
+      <c r="E227" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>9.4903882134258488</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>900</v>
       </c>
@@ -10476,12 +10476,12 @@
       <c r="D228" t="s">
         <v>903</v>
       </c>
-      <c r="E228">
+      <c r="E228" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0900213103301506</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>904</v>
       </c>
@@ -10494,12 +10494,12 @@
       <c r="D229" t="s">
         <v>907</v>
       </c>
-      <c r="E229">
+      <c r="E229" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>5.1352695339085654</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>908</v>
       </c>
@@ -10512,12 +10512,12 @@
       <c r="D230" t="s">
         <v>803</v>
       </c>
-      <c r="E230">
+      <c r="E230" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>1.410216352856795</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>911</v>
       </c>
@@ -10530,12 +10530,12 @@
       <c r="D231" t="s">
         <v>914</v>
       </c>
-      <c r="E231">
+      <c r="E231" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1418372040352489</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>915</v>
       </c>
@@ -10548,12 +10548,12 @@
       <c r="D232" t="s">
         <v>918</v>
       </c>
-      <c r="E232">
+      <c r="E232" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9798552366748179</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>919</v>
       </c>
@@ -10566,12 +10566,12 @@
       <c r="D233" t="s">
         <v>921</v>
       </c>
-      <c r="E233">
+      <c r="E233" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>15.432430400040253</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>922</v>
       </c>
@@ -10584,12 +10584,12 @@
       <c r="D234" t="s">
         <v>925</v>
       </c>
-      <c r="E234">
+      <c r="E234" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5789808573709085</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>926</v>
       </c>
@@ -10602,12 +10602,12 @@
       <c r="D235" t="s">
         <v>929</v>
       </c>
-      <c r="E235">
+      <c r="E235" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0287173269857419</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>930</v>
       </c>
@@ -10620,12 +10620,12 @@
       <c r="D236" t="s">
         <v>933</v>
       </c>
-      <c r="E236">
+      <c r="E236" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2799789515377205</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>934</v>
       </c>
@@ -10638,12 +10638,12 @@
       <c r="D237" t="s">
         <v>555</v>
       </c>
-      <c r="E237">
+      <c r="E237" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5074437654958954</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>937</v>
       </c>
@@ -10656,12 +10656,12 @@
       <c r="D238" t="s">
         <v>940</v>
       </c>
-      <c r="E238">
+      <c r="E238" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6667000895924229</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>941</v>
       </c>
@@ -10674,12 +10674,12 @@
       <c r="D239" t="s">
         <v>944</v>
       </c>
-      <c r="E239">
+      <c r="E239" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7177001302427093</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>945</v>
       </c>
@@ -10692,12 +10692,12 @@
       <c r="D240" t="s">
         <v>948</v>
       </c>
-      <c r="E240">
+      <c r="E240" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>8.3511091203568668</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>949</v>
       </c>
@@ -10710,12 +10710,12 @@
       <c r="D241" t="s">
         <v>952</v>
       </c>
-      <c r="E241">
+      <c r="E241" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6904235015591207</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>953</v>
       </c>
@@ -10728,12 +10728,12 @@
       <c r="D242" t="s">
         <v>956</v>
       </c>
-      <c r="E242">
+      <c r="E242" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9231826596122876</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>957</v>
       </c>
@@ -10746,12 +10746,12 @@
       <c r="D243" t="s">
         <v>960</v>
       </c>
-      <c r="E243">
+      <c r="E243" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>6.649864342056123</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>961</v>
       </c>
@@ -10764,12 +10764,12 @@
       <c r="D244" t="s">
         <v>964</v>
       </c>
-      <c r="E244">
+      <c r="E244" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8328870705198068</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>965</v>
       </c>
@@ -10782,12 +10782,12 @@
       <c r="D245" t="s">
         <v>968</v>
       </c>
-      <c r="E245">
+      <c r="E245" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>18.340690108928779</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>969</v>
       </c>
@@ -10800,12 +10800,12 @@
       <c r="D246" t="s">
         <v>972</v>
       </c>
-      <c r="E246">
+      <c r="E246" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>5.8616206909768298</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>973</v>
       </c>
@@ -10818,12 +10818,12 @@
       <c r="D247" t="s">
         <v>976</v>
       </c>
-      <c r="E247">
+      <c r="E247" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>4.8653099886516626</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>977</v>
       </c>
@@ -10836,12 +10836,12 @@
       <c r="D248" t="s">
         <v>980</v>
       </c>
-      <c r="E248">
+      <c r="E248" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>9.8268949699459398</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>981</v>
       </c>
@@ -10854,12 +10854,12 @@
       <c r="D249" t="s">
         <v>984</v>
       </c>
-      <c r="E249">
+      <c r="E249" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>19.704710463573686</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>985</v>
       </c>
@@ -10872,12 +10872,12 @@
       <c r="D250" t="s">
         <v>988</v>
       </c>
-      <c r="E250">
+      <c r="E250" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6099849757674924</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>989</v>
       </c>
@@ -10890,12 +10890,12 @@
       <c r="D251" t="s">
         <v>992</v>
       </c>
-      <c r="E251">
+      <c r="E251" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>14.466686683351313</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>993</v>
       </c>
@@ -10908,12 +10908,12 @@
       <c r="D252" t="s">
         <v>996</v>
       </c>
-      <c r="E252">
+      <c r="E252" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2456687132306281</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>997</v>
       </c>
@@ -10926,12 +10926,12 @@
       <c r="D253" t="s">
         <v>1000</v>
       </c>
-      <c r="E253">
+      <c r="E253" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>8.994958768487308</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1001</v>
       </c>
@@ -10944,12 +10944,12 @@
       <c r="D254" t="s">
         <v>1004</v>
       </c>
-      <c r="E254">
+      <c r="E254" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4793146339760224</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1005</v>
       </c>
@@ -10962,12 +10962,12 @@
       <c r="D255" t="s">
         <v>1008</v>
       </c>
-      <c r="E255">
+      <c r="E255" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0880854499352175</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1009</v>
       </c>
@@ -10980,12 +10980,12 @@
       <c r="D256" t="s">
         <v>1012</v>
       </c>
-      <c r="E256">
+      <c r="E256" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6647698843209051</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1013</v>
       </c>
@@ -10998,12 +10998,12 @@
       <c r="D257" t="s">
         <v>1016</v>
       </c>
-      <c r="E257">
+      <c r="E257" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>10.252505759926906</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1017</v>
       </c>
@@ -11016,12 +11016,12 @@
       <c r="D258" t="s">
         <v>1020</v>
       </c>
-      <c r="E258">
+      <c r="E258" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>8.5047040843109443</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1021</v>
       </c>
@@ -11034,12 +11034,12 @@
       <c r="D259" t="s">
         <v>1024</v>
       </c>
-      <c r="E259">
+      <c r="E259" t="e">
         <f t="shared" ref="E259:E322" ca="1" si="4">RANDBETWEEN(ABS(D259)*0.2,ABS(D259)*0.9) + RAND()</f>
-        <v>9.5540183094645954</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1025</v>
       </c>
@@ -11052,12 +11052,12 @@
       <c r="D260" t="s">
         <v>1028</v>
       </c>
-      <c r="E260">
+      <c r="E260" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>3.4849931354903299</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1029</v>
       </c>
@@ -11070,12 +11070,12 @@
       <c r="D261" t="s">
         <v>1032</v>
       </c>
-      <c r="E261">
+      <c r="E261" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9393417419119512</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1033</v>
       </c>
@@ -11088,12 +11088,12 @@
       <c r="D262" t="s">
         <v>1036</v>
       </c>
-      <c r="E262">
+      <c r="E262" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4540951849252237</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1037</v>
       </c>
@@ -11106,12 +11106,12 @@
       <c r="D263" t="s">
         <v>1040</v>
       </c>
-      <c r="E263">
+      <c r="E263" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>6.9246543755307153</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1041</v>
       </c>
@@ -11124,12 +11124,12 @@
       <c r="D264" t="s">
         <v>1044</v>
       </c>
-      <c r="E264">
+      <c r="E264" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3065320798382611</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1045</v>
       </c>
@@ -11142,12 +11142,12 @@
       <c r="D265" t="s">
         <v>1048</v>
       </c>
-      <c r="E265">
+      <c r="E265" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7077497932258936</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1049</v>
       </c>
@@ -11160,12 +11160,12 @@
       <c r="D266" t="s">
         <v>1052</v>
       </c>
-      <c r="E266">
+      <c r="E266" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>2.2168260105061073</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1053</v>
       </c>
@@ -11178,12 +11178,12 @@
       <c r="D267" t="s">
         <v>1056</v>
       </c>
-      <c r="E267">
+      <c r="E267" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>12.791557838911748</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1057</v>
       </c>
@@ -11196,12 +11196,12 @@
       <c r="D268" t="s">
         <v>775</v>
       </c>
-      <c r="E268">
+      <c r="E268" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>31.157159167999666</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1060</v>
       </c>
@@ -11214,12 +11214,12 @@
       <c r="D269" t="s">
         <v>1063</v>
       </c>
-      <c r="E269">
+      <c r="E269" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0121549646469434</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1064</v>
       </c>
@@ -11232,12 +11232,12 @@
       <c r="D270" t="s">
         <v>1067</v>
       </c>
-      <c r="E270">
+      <c r="E270" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>4.1723494584279734</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1068</v>
       </c>
@@ -11250,12 +11250,12 @@
       <c r="D271" t="s">
         <v>1071</v>
       </c>
-      <c r="E271">
+      <c r="E271" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>20.09166156169065</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1072</v>
       </c>
@@ -11268,12 +11268,12 @@
       <c r="D272" t="s">
         <v>1075</v>
       </c>
-      <c r="E272">
+      <c r="E272" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>18.694603030724295</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1076</v>
       </c>
@@ -11286,12 +11286,12 @@
       <c r="D273" t="s">
         <v>1079</v>
       </c>
-      <c r="E273">
+      <c r="E273" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>11.721726925614696</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1080</v>
       </c>
@@ -11304,12 +11304,12 @@
       <c r="D274" t="s">
         <v>1083</v>
       </c>
-      <c r="E274">
+      <c r="E274" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>19.870058901948006</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1084</v>
       </c>
@@ -11322,12 +11322,12 @@
       <c r="D275" t="s">
         <v>1087</v>
       </c>
-      <c r="E275">
+      <c r="E275" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7826928207502282</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1088</v>
       </c>
@@ -11340,12 +11340,12 @@
       <c r="D276" t="s">
         <v>1091</v>
       </c>
-      <c r="E276">
+      <c r="E276" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4657556916219514</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1092</v>
       </c>
@@ -11358,12 +11358,12 @@
       <c r="D277" t="s">
         <v>15</v>
       </c>
-      <c r="E277">
+      <c r="E277" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>10.301122879380941</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1095</v>
       </c>
@@ -11376,12 +11376,12 @@
       <c r="D278" t="s">
         <v>1098</v>
       </c>
-      <c r="E278">
+      <c r="E278" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7631255579682401</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1099</v>
       </c>
@@ -11394,12 +11394,12 @@
       <c r="D279" t="s">
         <v>1102</v>
       </c>
-      <c r="E279">
+      <c r="E279" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>5.897095847264632</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1103</v>
       </c>
@@ -11412,12 +11412,12 @@
       <c r="D280" t="s">
         <v>1106</v>
       </c>
-      <c r="E280">
+      <c r="E280" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>3.0761617814067108</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1107</v>
       </c>
@@ -11430,12 +11430,12 @@
       <c r="D281" t="s">
         <v>1110</v>
       </c>
-      <c r="E281">
+      <c r="E281" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>15.481187098442664</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1111</v>
       </c>
@@ -11448,12 +11448,12 @@
       <c r="D282" t="s">
         <v>1114</v>
       </c>
-      <c r="E282">
+      <c r="E282" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>3.7156275220520421</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1115</v>
       </c>
@@ -11466,12 +11466,12 @@
       <c r="D283" t="s">
         <v>1118</v>
       </c>
-      <c r="E283">
+      <c r="E283" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>10.590093274122268</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1119</v>
       </c>
@@ -11484,12 +11484,12 @@
       <c r="D284" t="s">
         <v>1122</v>
       </c>
-      <c r="E284">
+      <c r="E284" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>4.5270031226723146</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1123</v>
       </c>
@@ -11502,12 +11502,12 @@
       <c r="D285" t="s">
         <v>1126</v>
       </c>
-      <c r="E285">
+      <c r="E285" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>16.135849950641052</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1127</v>
       </c>
@@ -11520,12 +11520,12 @@
       <c r="D286" t="s">
         <v>1130</v>
       </c>
-      <c r="E286">
+      <c r="E286" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>13.753707828088283</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1131</v>
       </c>
@@ -11538,12 +11538,12 @@
       <c r="D287" t="s">
         <v>1134</v>
       </c>
-      <c r="E287">
+      <c r="E287" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6073338353799809</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1135</v>
       </c>
@@ -11556,12 +11556,12 @@
       <c r="D288" t="s">
         <v>1138</v>
       </c>
-      <c r="E288">
+      <c r="E288" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>2.1583159178136633</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1139</v>
       </c>
@@ -11574,12 +11574,12 @@
       <c r="D289" t="s">
         <v>1142</v>
       </c>
-      <c r="E289">
+      <c r="E289" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>5.8639481329427445</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1143</v>
       </c>
@@ -11592,12 +11592,12 @@
       <c r="D290" t="s">
         <v>1146</v>
       </c>
-      <c r="E290">
+      <c r="E290" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>8.7947446276187531</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1147</v>
       </c>
@@ -11610,12 +11610,12 @@
       <c r="D291" t="s">
         <v>340</v>
       </c>
-      <c r="E291">
+      <c r="E291" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>2.1209107450155988</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1150</v>
       </c>
@@ -11628,12 +11628,12 @@
       <c r="D292" t="s">
         <v>1153</v>
       </c>
-      <c r="E292">
+      <c r="E292" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7426776775115997</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1154</v>
       </c>
@@ -11646,12 +11646,12 @@
       <c r="D293" t="s">
         <v>1157</v>
       </c>
-      <c r="E293">
+      <c r="E293" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>2.4380077425903077</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1158</v>
       </c>
@@ -11664,12 +11664,12 @@
       <c r="D294" t="s">
         <v>1161</v>
       </c>
-      <c r="E294">
+      <c r="E294" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0995709463006387</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1162</v>
       </c>
@@ -11682,12 +11682,12 @@
       <c r="D295" t="s">
         <v>1165</v>
       </c>
-      <c r="E295">
+      <c r="E295" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>9.7394149864795114</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1166</v>
       </c>
@@ -11700,12 +11700,12 @@
       <c r="D296" t="s">
         <v>1169</v>
       </c>
-      <c r="E296">
+      <c r="E296" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>17.778647344653567</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1170</v>
       </c>
@@ -11718,12 +11718,12 @@
       <c r="D297" t="s">
         <v>1173</v>
       </c>
-      <c r="E297">
+      <c r="E297" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>8.5900540519066144</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1174</v>
       </c>
@@ -11736,12 +11736,12 @@
       <c r="D298" t="s">
         <v>1177</v>
       </c>
-      <c r="E298">
+      <c r="E298" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>6.0041613857289136</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1178</v>
       </c>
@@ -11754,12 +11754,12 @@
       <c r="D299" t="s">
         <v>1181</v>
       </c>
-      <c r="E299">
+      <c r="E299" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>17.780553756670244</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1182</v>
       </c>
@@ -11772,12 +11772,12 @@
       <c r="D300" t="s">
         <v>1185</v>
       </c>
-      <c r="E300">
+      <c r="E300" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>22.926901164567756</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1186</v>
       </c>
@@ -11790,12 +11790,12 @@
       <c r="D301" t="s">
         <v>1189</v>
       </c>
-      <c r="E301">
+      <c r="E301" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1415462543195414</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1190</v>
       </c>
@@ -11808,12 +11808,12 @@
       <c r="D302" t="s">
         <v>1193</v>
       </c>
-      <c r="E302">
+      <c r="E302" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2538446783017188</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1194</v>
       </c>
@@ -11826,12 +11826,12 @@
       <c r="D303" t="s">
         <v>1197</v>
       </c>
-      <c r="E303">
+      <c r="E303" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>7.5479933464007658</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1198</v>
       </c>
@@ -11844,12 +11844,12 @@
       <c r="D304" t="s">
         <v>1201</v>
       </c>
-      <c r="E304">
+      <c r="E304" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8159864208625853</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1202</v>
       </c>
@@ -11862,12 +11862,12 @@
       <c r="D305" t="s">
         <v>1205</v>
       </c>
-      <c r="E305">
+      <c r="E305" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4412435765978509</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1206</v>
       </c>
@@ -11880,12 +11880,12 @@
       <c r="D306" t="s">
         <v>1209</v>
       </c>
-      <c r="E306">
+      <c r="E306" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>7.0950844334228567</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1210</v>
       </c>
@@ -11898,12 +11898,12 @@
       <c r="D307" t="s">
         <v>1213</v>
       </c>
-      <c r="E307">
+      <c r="E307" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>6.8353578731109543</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1214</v>
       </c>
@@ -11916,12 +11916,12 @@
       <c r="D308" t="s">
         <v>1217</v>
       </c>
-      <c r="E308">
+      <c r="E308" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>2.0344078302893784</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1218</v>
       </c>
@@ -11934,12 +11934,12 @@
       <c r="D309" t="s">
         <v>1048</v>
       </c>
-      <c r="E309">
+      <c r="E309" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>3.403414326149345</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1221</v>
       </c>
@@ -11952,12 +11952,12 @@
       <c r="D310" t="s">
         <v>1224</v>
       </c>
-      <c r="E310">
+      <c r="E310" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>3.8425654015544874</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1225</v>
       </c>
@@ -11970,12 +11970,12 @@
       <c r="D311" t="s">
         <v>1228</v>
       </c>
-      <c r="E311">
+      <c r="E311" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6263275396212193</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1229</v>
       </c>
@@ -11988,12 +11988,12 @@
       <c r="D312" t="s">
         <v>1232</v>
       </c>
-      <c r="E312">
+      <c r="E312" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4991542668706646</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1233</v>
       </c>
@@ -12006,12 +12006,12 @@
       <c r="D313" t="s">
         <v>1236</v>
       </c>
-      <c r="E313">
+      <c r="E313" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8199014882797009</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1237</v>
       </c>
@@ -12024,12 +12024,12 @@
       <c r="D314" t="s">
         <v>1240</v>
       </c>
-      <c r="E314">
+      <c r="E314" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>7.2950447594336927</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1241</v>
       </c>
@@ -12042,12 +12042,12 @@
       <c r="D315" t="s">
         <v>1244</v>
       </c>
-      <c r="E315">
+      <c r="E315" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>8.0327336059293213</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1245</v>
       </c>
@@ -12060,12 +12060,12 @@
       <c r="D316" t="s">
         <v>1248</v>
       </c>
-      <c r="E316">
+      <c r="E316" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>3.2499486118744159</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1249</v>
       </c>
@@ -12078,12 +12078,12 @@
       <c r="D317" t="s">
         <v>1252</v>
       </c>
-      <c r="E317">
+      <c r="E317" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>3.1985522372661381</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1253</v>
       </c>
@@ -12096,12 +12096,12 @@
       <c r="D318" t="s">
         <v>1256</v>
       </c>
-      <c r="E318">
+      <c r="E318" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5067495940120277</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1257</v>
       </c>
@@ -12114,12 +12114,12 @@
       <c r="D319" t="s">
         <v>1260</v>
       </c>
-      <c r="E319">
+      <c r="E319" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>5.6581308335225353</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1261</v>
       </c>
@@ -12132,12 +12132,12 @@
       <c r="D320" t="s">
         <v>1264</v>
       </c>
-      <c r="E320">
+      <c r="E320" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7169535043525896</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1265</v>
       </c>
@@ -12150,12 +12150,12 @@
       <c r="D321" t="s">
         <v>1268</v>
       </c>
-      <c r="E321">
+      <c r="E321" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5654346161988251</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1269</v>
       </c>
@@ -12168,12 +12168,12 @@
       <c r="D322" t="s">
         <v>1272</v>
       </c>
-      <c r="E322">
+      <c r="E322" t="e">
         <f t="shared" ca="1" si="4"/>
-        <v>3.3102586731430708</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1273</v>
       </c>
@@ -12186,12 +12186,12 @@
       <c r="D323" t="s">
         <v>1276</v>
       </c>
-      <c r="E323">
+      <c r="E323" t="e">
         <f t="shared" ref="E323:E386" ca="1" si="5">RANDBETWEEN(ABS(D323)*0.2,ABS(D323)*0.9) + RAND()</f>
-        <v>4.7871611495317987</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1277</v>
       </c>
@@ -12204,12 +12204,12 @@
       <c r="D324" t="s">
         <v>1280</v>
       </c>
-      <c r="E324">
+      <c r="E324" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>23.9390212661792</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1281</v>
       </c>
@@ -12222,12 +12222,12 @@
       <c r="D325" t="s">
         <v>1284</v>
       </c>
-      <c r="E325">
+      <c r="E325" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5573807822787522</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1285</v>
       </c>
@@ -12240,12 +12240,12 @@
       <c r="D326" t="s">
         <v>1288</v>
       </c>
-      <c r="E326">
+      <c r="E326" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>4.4007484126721721</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1289</v>
       </c>
@@ -12258,12 +12258,12 @@
       <c r="D327" t="s">
         <v>1292</v>
       </c>
-      <c r="E327">
+      <c r="E327" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>8.7853270119230586</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1293</v>
       </c>
@@ -12276,12 +12276,12 @@
       <c r="D328" t="s">
         <v>1296</v>
       </c>
-      <c r="E328">
+      <c r="E328" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>3.230312177353825</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1297</v>
       </c>
@@ -12294,12 +12294,12 @@
       <c r="D329" t="s">
         <v>1300</v>
       </c>
-      <c r="E329">
+      <c r="E329" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>2.7074998537627359</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1301</v>
       </c>
@@ -12312,12 +12312,12 @@
       <c r="D330" t="s">
         <v>1304</v>
       </c>
-      <c r="E330">
+      <c r="E330" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1607836926679003</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1305</v>
       </c>
@@ -12330,12 +12330,12 @@
       <c r="D331" t="s">
         <v>1308</v>
       </c>
-      <c r="E331">
+      <c r="E331" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>6.8761686096805459</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1309</v>
       </c>
@@ -12348,12 +12348,12 @@
       <c r="D332" t="s">
         <v>1312</v>
       </c>
-      <c r="E332">
+      <c r="E332" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>3.7377878994358085</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1313</v>
       </c>
@@ -12366,12 +12366,12 @@
       <c r="D333" t="s">
         <v>1316</v>
       </c>
-      <c r="E333">
+      <c r="E333" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>2.0193723895229558</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1317</v>
       </c>
@@ -12384,12 +12384,12 @@
       <c r="D334" t="s">
         <v>1320</v>
       </c>
-      <c r="E334">
+      <c r="E334" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8805650208221698</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1321</v>
       </c>
@@ -12402,12 +12402,12 @@
       <c r="D335" t="s">
         <v>1324</v>
       </c>
-      <c r="E335">
+      <c r="E335" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>8.0108170168597308</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1325</v>
       </c>
@@ -12420,12 +12420,12 @@
       <c r="D336" t="s">
         <v>1328</v>
       </c>
-      <c r="E336">
+      <c r="E336" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>7.1124269392167747</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1329</v>
       </c>
@@ -12438,12 +12438,12 @@
       <c r="D337" t="s">
         <v>1332</v>
       </c>
-      <c r="E337">
+      <c r="E337" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1891507369019805</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1333</v>
       </c>
@@ -12456,12 +12456,12 @@
       <c r="D338" t="s">
         <v>1336</v>
       </c>
-      <c r="E338">
+      <c r="E338" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>4.4542100481689886</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1337</v>
       </c>
@@ -12474,12 +12474,12 @@
       <c r="D339" t="s">
         <v>1340</v>
       </c>
-      <c r="E339">
+      <c r="E339" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>6.45744949483593</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1341</v>
       </c>
@@ -12492,12 +12492,12 @@
       <c r="D340" t="s">
         <v>1344</v>
       </c>
-      <c r="E340">
+      <c r="E340" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2668466945105921</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1345</v>
       </c>
@@ -12510,12 +12510,12 @@
       <c r="D341" t="s">
         <v>559</v>
       </c>
-      <c r="E341">
+      <c r="E341" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5079895124533735</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1348</v>
       </c>
@@ -12528,12 +12528,12 @@
       <c r="D342" t="s">
         <v>1351</v>
       </c>
-      <c r="E342">
+      <c r="E342" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>4.3531133322014837</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1352</v>
       </c>
@@ -12546,12 +12546,12 @@
       <c r="D343" t="s">
         <v>1355</v>
       </c>
-      <c r="E343">
+      <c r="E343" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>6.4928467170808162</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1356</v>
       </c>
@@ -12564,12 +12564,12 @@
       <c r="D344" t="s">
         <v>1359</v>
       </c>
-      <c r="E344">
+      <c r="E344" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5572697260170396</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1360</v>
       </c>
@@ -12582,12 +12582,12 @@
       <c r="D345" t="s">
         <v>1363</v>
       </c>
-      <c r="E345">
+      <c r="E345" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8273990836761742</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1364</v>
       </c>
@@ -12600,12 +12600,12 @@
       <c r="D346" t="s">
         <v>1367</v>
       </c>
-      <c r="E346">
+      <c r="E346" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>11.852737876120639</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1368</v>
       </c>
@@ -12618,12 +12618,12 @@
       <c r="D347" t="s">
         <v>1371</v>
       </c>
-      <c r="E347">
+      <c r="E347" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>11.30676666720594</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1372</v>
       </c>
@@ -12636,12 +12636,12 @@
       <c r="D348" t="s">
         <v>1375</v>
       </c>
-      <c r="E348">
+      <c r="E348" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>7.6652133832260088</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1376</v>
       </c>
@@ -12654,12 +12654,12 @@
       <c r="D349" t="s">
         <v>1379</v>
       </c>
-      <c r="E349">
+      <c r="E349" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>16.416517553102395</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1380</v>
       </c>
@@ -12672,12 +12672,12 @@
       <c r="D350" t="s">
         <v>1383</v>
       </c>
-      <c r="E350">
+      <c r="E350" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>10.786213061854943</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1384</v>
       </c>
@@ -12690,12 +12690,12 @@
       <c r="D351" t="s">
         <v>1387</v>
       </c>
-      <c r="E351">
+      <c r="E351" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>6.6078616013482323</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1388</v>
       </c>
@@ -12708,12 +12708,12 @@
       <c r="D352" t="s">
         <v>1391</v>
       </c>
-      <c r="E352">
+      <c r="E352" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>15.057708591822164</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1392</v>
       </c>
@@ -12726,12 +12726,12 @@
       <c r="D353" t="s">
         <v>1395</v>
       </c>
-      <c r="E353">
+      <c r="E353" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8009545098705968</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1396</v>
       </c>
@@ -12744,12 +12744,12 @@
       <c r="D354" t="s">
         <v>1399</v>
       </c>
-      <c r="E354">
+      <c r="E354" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0643031665229943</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1400</v>
       </c>
@@ -12762,12 +12762,12 @@
       <c r="D355" t="s">
         <v>1004</v>
       </c>
-      <c r="E355">
+      <c r="E355" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>7.5166440735851792</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1402</v>
       </c>
@@ -12780,12 +12780,12 @@
       <c r="D356" t="s">
         <v>1405</v>
       </c>
-      <c r="E356">
+      <c r="E356" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>3.288200103641902</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1406</v>
       </c>
@@ -12798,12 +12798,12 @@
       <c r="D357" t="s">
         <v>1409</v>
       </c>
-      <c r="E357">
+      <c r="E357" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>3.5535508507835636</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1410</v>
       </c>
@@ -12816,12 +12816,12 @@
       <c r="D358" t="s">
         <v>1413</v>
       </c>
-      <c r="E358">
+      <c r="E358" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>1.142995183117554</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1414</v>
       </c>
@@ -12834,12 +12834,12 @@
       <c r="D359" t="s">
         <v>1417</v>
       </c>
-      <c r="E359">
+      <c r="E359" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3029037472303586</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1418</v>
       </c>
@@ -12852,12 +12852,12 @@
       <c r="D360" t="s">
         <v>1421</v>
       </c>
-      <c r="E360">
+      <c r="E360" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>2.4031085889059698</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1422</v>
       </c>
@@ -12870,12 +12870,12 @@
       <c r="D361" t="s">
         <v>1425</v>
       </c>
-      <c r="E361">
+      <c r="E361" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>5.3793270122031736</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1426</v>
       </c>
@@ -12888,12 +12888,12 @@
       <c r="D362" t="s">
         <v>1429</v>
       </c>
-      <c r="E362">
+      <c r="E362" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>7.1457620646853286</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1430</v>
       </c>
@@ -12906,12 +12906,12 @@
       <c r="D363" t="s">
         <v>1433</v>
       </c>
-      <c r="E363">
+      <c r="E363" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0753928913409254</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1434</v>
       </c>
@@ -12924,12 +12924,12 @@
       <c r="D364" t="s">
         <v>1437</v>
       </c>
-      <c r="E364">
+      <c r="E364" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>9.674737940435497</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1438</v>
       </c>
@@ -12942,12 +12942,12 @@
       <c r="D365" t="s">
         <v>1441</v>
       </c>
-      <c r="E365">
+      <c r="E365" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>10.682061711867227</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1442</v>
       </c>
@@ -12960,12 +12960,12 @@
       <c r="D366" t="s">
         <v>1445</v>
       </c>
-      <c r="E366">
+      <c r="E366" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>4.3246913266081561</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1446</v>
       </c>
@@ -12978,12 +12978,12 @@
       <c r="D367" t="s">
         <v>1449</v>
       </c>
-      <c r="E367">
+      <c r="E367" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0970237591776235</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1450</v>
       </c>
@@ -12996,12 +12996,12 @@
       <c r="D368" t="s">
         <v>1453</v>
       </c>
-      <c r="E368">
+      <c r="E368" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>5.790250212729517</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1454</v>
       </c>
@@ -13014,12 +13014,12 @@
       <c r="D369" t="s">
         <v>1457</v>
       </c>
-      <c r="E369">
+      <c r="E369" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1223927338890893</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1458</v>
       </c>
@@ -13032,12 +13032,12 @@
       <c r="D370" t="s">
         <v>1461</v>
       </c>
-      <c r="E370">
+      <c r="E370" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1770717700994244</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1462</v>
       </c>
@@ -13050,12 +13050,12 @@
       <c r="D371" t="s">
         <v>1465</v>
       </c>
-      <c r="E371">
+      <c r="E371" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1507219689654971</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1466</v>
       </c>
@@ -13068,12 +13068,12 @@
       <c r="D372" t="s">
         <v>1398</v>
       </c>
-      <c r="E372">
+      <c r="E372" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>7.9771346122541242</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1469</v>
       </c>
@@ -13086,12 +13086,12 @@
       <c r="D373" t="s">
         <v>1471</v>
       </c>
-      <c r="E373">
+      <c r="E373" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>18.898720779607029</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1472</v>
       </c>
@@ -13104,12 +13104,12 @@
       <c r="D374" t="s">
         <v>1475</v>
       </c>
-      <c r="E374">
+      <c r="E374" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>9.5655901844725975</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1476</v>
       </c>
@@ -13122,12 +13122,12 @@
       <c r="D375" t="s">
         <v>1387</v>
       </c>
-      <c r="E375">
+      <c r="E375" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>6.5508188376396914</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1479</v>
       </c>
@@ -13140,12 +13140,12 @@
       <c r="D376" t="s">
         <v>1482</v>
       </c>
-      <c r="E376">
+      <c r="E376" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>3.8694626951734876</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1483</v>
       </c>
@@ -13158,12 +13158,12 @@
       <c r="D377" t="s">
         <v>1486</v>
       </c>
-      <c r="E377">
+      <c r="E377" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8296479791255977</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1487</v>
       </c>
@@ -13176,12 +13176,12 @@
       <c r="D378" t="s">
         <v>1490</v>
       </c>
-      <c r="E378">
+      <c r="E378" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>5.9683129362128557</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1491</v>
       </c>
@@ -13194,12 +13194,12 @@
       <c r="D379" t="s">
         <v>1494</v>
       </c>
-      <c r="E379">
+      <c r="E379" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>6.4442057399263195</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1495</v>
       </c>
@@ -13212,12 +13212,12 @@
       <c r="D380" t="s">
         <v>1498</v>
       </c>
-      <c r="E380">
+      <c r="E380" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>7.5678337264783222</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1499</v>
       </c>
@@ -13230,12 +13230,12 @@
       <c r="D381" t="s">
         <v>1502</v>
       </c>
-      <c r="E381">
+      <c r="E381" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>6.7688952184274864</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1503</v>
       </c>
@@ -13248,12 +13248,12 @@
       <c r="D382" t="s">
         <v>1506</v>
       </c>
-      <c r="E382">
+      <c r="E382" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>5.7252696952062099</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1507</v>
       </c>
@@ -13266,12 +13266,12 @@
       <c r="D383" t="s">
         <v>1510</v>
       </c>
-      <c r="E383">
+      <c r="E383" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>2.3239531210752751</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1511</v>
       </c>
@@ -13284,12 +13284,12 @@
       <c r="D384" t="s">
         <v>1514</v>
       </c>
-      <c r="E384">
+      <c r="E384" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>9.1366630529815467</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1515</v>
       </c>
@@ -13302,12 +13302,12 @@
       <c r="D385" t="s">
         <v>1518</v>
       </c>
-      <c r="E385">
+      <c r="E385" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>15.759913324457859</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1519</v>
       </c>
@@ -13320,12 +13320,12 @@
       <c r="D386" t="s">
         <v>1522</v>
       </c>
-      <c r="E386">
+      <c r="E386" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>12.768372260114344</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1523</v>
       </c>
@@ -13338,12 +13338,12 @@
       <c r="D387" t="s">
         <v>1526</v>
       </c>
-      <c r="E387">
+      <c r="E387" t="e">
         <f t="shared" ref="E387:E450" ca="1" si="6">RANDBETWEEN(ABS(D387)*0.2,ABS(D387)*0.9) + RAND()</f>
-        <v>31.817104676684611</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1527</v>
       </c>
@@ -13356,12 +13356,12 @@
       <c r="D388" t="s">
         <v>1530</v>
       </c>
-      <c r="E388">
+      <c r="E388" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>24.226198885523907</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1531</v>
       </c>
@@ -13374,12 +13374,12 @@
       <c r="D389" t="s">
         <v>1534</v>
       </c>
-      <c r="E389">
+      <c r="E389" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0746020213066076</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1535</v>
       </c>
@@ -13392,12 +13392,12 @@
       <c r="D390" t="s">
         <v>1538</v>
       </c>
-      <c r="E390">
+      <c r="E390" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>2.889096399503571</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1539</v>
       </c>
@@ -13410,12 +13410,12 @@
       <c r="D391" t="s">
         <v>1542</v>
       </c>
-      <c r="E391">
+      <c r="E391" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>3.5939726358884352</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1543</v>
       </c>
@@ -13428,12 +13428,12 @@
       <c r="D392" t="s">
         <v>1546</v>
       </c>
-      <c r="E392">
+      <c r="E392" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>12.799055434903643</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1547</v>
       </c>
@@ -13446,12 +13446,12 @@
       <c r="D393" t="s">
         <v>1550</v>
       </c>
-      <c r="E393">
+      <c r="E393" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1271416855952241</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1551</v>
       </c>
@@ -13464,12 +13464,12 @@
       <c r="D394" t="s">
         <v>1554</v>
       </c>
-      <c r="E394">
+      <c r="E394" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>6.9179678283706059</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1555</v>
       </c>
@@ -13482,12 +13482,12 @@
       <c r="D395" t="s">
         <v>1558</v>
       </c>
-      <c r="E395">
+      <c r="E395" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7963115614790337</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1559</v>
       </c>
@@ -13500,12 +13500,12 @@
       <c r="D396" t="s">
         <v>1562</v>
       </c>
-      <c r="E396">
+      <c r="E396" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>10.298217462176586</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1563</v>
       </c>
@@ -13518,12 +13518,12 @@
       <c r="D397" t="s">
         <v>1566</v>
       </c>
-      <c r="E397">
+      <c r="E397" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>9.6866806251272504</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1567</v>
       </c>
@@ -13536,12 +13536,12 @@
       <c r="D398" t="s">
         <v>1570</v>
       </c>
-      <c r="E398">
+      <c r="E398" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>3.8719778747697071</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1571</v>
       </c>
@@ -13554,12 +13554,12 @@
       <c r="D399" t="s">
         <v>1574</v>
       </c>
-      <c r="E399">
+      <c r="E399" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>10.474614988941944</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1575</v>
       </c>
@@ -13572,12 +13572,12 @@
       <c r="D400" t="s">
         <v>1578</v>
       </c>
-      <c r="E400">
+      <c r="E400" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>5.5856421975438169</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1579</v>
       </c>
@@ -13590,12 +13590,12 @@
       <c r="D401" t="s">
         <v>1582</v>
       </c>
-      <c r="E401">
+      <c r="E401" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>8.8677146835975389</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1583</v>
       </c>
@@ -13608,12 +13608,12 @@
       <c r="D402" t="s">
         <v>1586</v>
       </c>
-      <c r="E402">
+      <c r="E402" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>10.488576870418971</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1587</v>
       </c>
@@ -13626,12 +13626,12 @@
       <c r="D403" t="s">
         <v>1590</v>
       </c>
-      <c r="E403">
+      <c r="E403" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>7.4452645316857762</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1591</v>
       </c>
@@ -13644,12 +13644,12 @@
       <c r="D404" t="s">
         <v>1594</v>
       </c>
-      <c r="E404">
+      <c r="E404" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5929070849723843</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1595</v>
       </c>
@@ -13662,12 +13662,12 @@
       <c r="D405" t="s">
         <v>1598</v>
       </c>
-      <c r="E405">
+      <c r="E405" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>5.500022125630605</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1599</v>
       </c>
@@ -13680,12 +13680,12 @@
       <c r="D406" t="s">
         <v>1602</v>
       </c>
-      <c r="E406">
+      <c r="E406" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7523168144029744</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1603</v>
       </c>
@@ -13698,12 +13698,12 @@
       <c r="D407" t="s">
         <v>1606</v>
       </c>
-      <c r="E407">
+      <c r="E407" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>11.715922675791102</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1607</v>
       </c>
@@ -13716,12 +13716,12 @@
       <c r="D408" t="s">
         <v>1610</v>
       </c>
-      <c r="E408">
+      <c r="E408" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>3.8624129034443833</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1611</v>
       </c>
@@ -13734,12 +13734,12 @@
       <c r="D409" t="s">
         <v>1614</v>
       </c>
-      <c r="E409">
+      <c r="E409" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>4.3377039464693157</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1615</v>
       </c>
@@ -13752,12 +13752,12 @@
       <c r="D410" t="s">
         <v>1618</v>
       </c>
-      <c r="E410">
+      <c r="E410" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>7.5534205426700707</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1619</v>
       </c>
@@ -13770,12 +13770,12 @@
       <c r="D411" t="s">
         <v>1622</v>
       </c>
-      <c r="E411">
+      <c r="E411" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>5.6461470175270767</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1623</v>
       </c>
@@ -13788,12 +13788,12 @@
       <c r="D412" t="s">
         <v>1626</v>
       </c>
-      <c r="E412">
+      <c r="E412" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>2.1339053120095466</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>1627</v>
       </c>
@@ -13806,12 +13806,12 @@
       <c r="D413" t="s">
         <v>1630</v>
       </c>
-      <c r="E413">
+      <c r="E413" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>11.322312233473898</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1631</v>
       </c>
@@ -13824,12 +13824,12 @@
       <c r="D414" t="s">
         <v>1634</v>
       </c>
-      <c r="E414">
+      <c r="E414" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3391302914957244</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1635</v>
       </c>
@@ -13842,12 +13842,12 @@
       <c r="D415" t="s">
         <v>1638</v>
       </c>
-      <c r="E415">
+      <c r="E415" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>3.9161494110323787</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1639</v>
       </c>
@@ -13860,12 +13860,12 @@
       <c r="D416" t="s">
         <v>1642</v>
       </c>
-      <c r="E416">
+      <c r="E416" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>3.7999521236630911</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>1643</v>
       </c>
@@ -13878,12 +13878,12 @@
       <c r="D417" t="s">
         <v>1646</v>
       </c>
-      <c r="E417">
+      <c r="E417" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>2.5008683694888529</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>1647</v>
       </c>
@@ -13896,12 +13896,12 @@
       <c r="D418" t="s">
         <v>1650</v>
       </c>
-      <c r="E418">
+      <c r="E418" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>7.340559514503127</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1651</v>
       </c>
@@ -13914,12 +13914,12 @@
       <c r="D419" t="s">
         <v>1654</v>
       </c>
-      <c r="E419">
+      <c r="E419" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>2.593585114777452</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1655</v>
       </c>
@@ -13932,12 +13932,12 @@
       <c r="D420" t="s">
         <v>1658</v>
       </c>
-      <c r="E420">
+      <c r="E420" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>1.7236072917530492</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1659</v>
       </c>
@@ -13950,12 +13950,12 @@
       <c r="D421" t="s">
         <v>1662</v>
       </c>
-      <c r="E421">
+      <c r="E421" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>1.9117801657748243</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1663</v>
       </c>
@@ -13968,12 +13968,12 @@
       <c r="D422" t="s">
         <v>1666</v>
       </c>
-      <c r="E422">
+      <c r="E422" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>3.5908293984258104</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1667</v>
       </c>
@@ -13986,12 +13986,12 @@
       <c r="D423" t="s">
         <v>1670</v>
       </c>
-      <c r="E423">
+      <c r="E423" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>11.725093925167636</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1671</v>
       </c>
@@ -14004,12 +14004,12 @@
       <c r="D424" t="s">
         <v>1674</v>
       </c>
-      <c r="E424">
+      <c r="E424" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>11.016180528658547</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>1675</v>
       </c>
@@ -14022,12 +14022,12 @@
       <c r="D425" t="s">
         <v>1678</v>
       </c>
-      <c r="E425">
+      <c r="E425" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>7.3277563937554957</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1679</v>
       </c>
@@ -14040,12 +14040,12 @@
       <c r="D426" t="s">
         <v>1682</v>
       </c>
-      <c r="E426">
+      <c r="E426" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>3.3662305506723058</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1683</v>
       </c>
@@ -14058,12 +14058,12 @@
       <c r="D427" t="s">
         <v>1686</v>
       </c>
-      <c r="E427">
+      <c r="E427" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>4.3467491314235662</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1687</v>
       </c>
@@ -14076,12 +14076,12 @@
       <c r="D428" t="s">
         <v>1690</v>
       </c>
-      <c r="E428">
+      <c r="E428" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>13.639876580184696</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1691</v>
       </c>
@@ -14094,12 +14094,12 @@
       <c r="D429" t="s">
         <v>1694</v>
       </c>
-      <c r="E429">
+      <c r="E429" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>6.7024119186386626</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1695</v>
       </c>
@@ -14112,12 +14112,12 @@
       <c r="D430" t="s">
         <v>1698</v>
       </c>
-      <c r="E430">
+      <c r="E430" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>3.2919722757366849</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1699</v>
       </c>
@@ -14130,12 +14130,12 @@
       <c r="D431" t="s">
         <v>1702</v>
       </c>
-      <c r="E431">
+      <c r="E431" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0884994736423099</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1703</v>
       </c>
@@ -14148,12 +14148,12 @@
       <c r="D432" t="s">
         <v>1706</v>
       </c>
-      <c r="E432">
+      <c r="E432" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>4.1187601751934197</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1707</v>
       </c>
@@ -14166,12 +14166,12 @@
       <c r="D433" t="s">
         <v>1710</v>
       </c>
-      <c r="E433">
+      <c r="E433" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8436179127350321</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1711</v>
       </c>
@@ -14184,12 +14184,12 @@
       <c r="D434" t="s">
         <v>1714</v>
       </c>
-      <c r="E434">
+      <c r="E434" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>3.330121760168582</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1715</v>
       </c>
@@ -14202,12 +14202,12 @@
       <c r="D435" t="s">
         <v>1718</v>
       </c>
-      <c r="E435">
+      <c r="E435" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5654011396281313</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1719</v>
       </c>
@@ -14220,12 +14220,12 @@
       <c r="D436" t="s">
         <v>1722</v>
       </c>
-      <c r="E436">
+      <c r="E436" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>2.0387704814748582</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>1723</v>
       </c>
@@ -14238,12 +14238,12 @@
       <c r="D437" t="s">
         <v>1726</v>
       </c>
-      <c r="E437">
+      <c r="E437" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>36.008276014896104</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>1727</v>
       </c>
@@ -14256,12 +14256,12 @@
       <c r="D438" t="s">
         <v>1730</v>
       </c>
-      <c r="E438">
+      <c r="E438" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>43.989641392853819</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1731</v>
       </c>
@@ -14274,12 +14274,12 @@
       <c r="D439" t="s">
         <v>170</v>
       </c>
-      <c r="E439">
+      <c r="E439" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>8.3860603210380482</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1734</v>
       </c>
@@ -14292,12 +14292,12 @@
       <c r="D440" t="s">
         <v>1737</v>
       </c>
-      <c r="E440">
+      <c r="E440" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>6.1803420155517603</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>1738</v>
       </c>
@@ -14310,12 +14310,12 @@
       <c r="D441" t="s">
         <v>1741</v>
       </c>
-      <c r="E441">
+      <c r="E441" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8486421812653715</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>1742</v>
       </c>
@@ -14328,12 +14328,12 @@
       <c r="D442" t="s">
         <v>1745</v>
       </c>
-      <c r="E442">
+      <c r="E442" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>19.250601929620302</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>1746</v>
       </c>
@@ -14346,12 +14346,12 @@
       <c r="D443" t="s">
         <v>1749</v>
       </c>
-      <c r="E443">
+      <c r="E443" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>11.580425315794198</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>1750</v>
       </c>
@@ -14364,12 +14364,12 @@
       <c r="D444" t="s">
         <v>571</v>
       </c>
-      <c r="E444">
+      <c r="E444" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>8.5343466561913264</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>1753</v>
       </c>
@@ -14382,12 +14382,12 @@
       <c r="D445" t="s">
         <v>1756</v>
       </c>
-      <c r="E445">
+      <c r="E445" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>6.4828823589365108</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>1757</v>
       </c>
@@ -14400,12 +14400,12 @@
       <c r="D446" t="s">
         <v>1760</v>
       </c>
-      <c r="E446">
+      <c r="E446" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>3.2872446066150407</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1761</v>
       </c>
@@ -14418,12 +14418,12 @@
       <c r="D447" t="s">
         <v>1764</v>
       </c>
-      <c r="E447">
+      <c r="E447" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>2.1234149301784324</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1765</v>
       </c>
@@ -14436,12 +14436,12 @@
       <c r="D448" t="s">
         <v>1768</v>
       </c>
-      <c r="E448">
+      <c r="E448" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>3.0704188009409692</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1769</v>
       </c>
@@ -14454,12 +14454,12 @@
       <c r="D449" t="s">
         <v>1772</v>
       </c>
-      <c r="E449">
+      <c r="E449" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>24.383660285815512</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>1773</v>
       </c>
@@ -14472,12 +14472,12 @@
       <c r="D450" t="s">
         <v>1776</v>
       </c>
-      <c r="E450">
+      <c r="E450" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>5.9467097448216872</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>1777</v>
       </c>
@@ -14490,12 +14490,12 @@
       <c r="D451" t="s">
         <v>1780</v>
       </c>
-      <c r="E451">
+      <c r="E451" t="e">
         <f t="shared" ref="E451:E504" ca="1" si="7">RANDBETWEEN(ABS(D451)*0.2,ABS(D451)*0.9) + RAND()</f>
-        <v>1.3042741597297631</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1781</v>
       </c>
@@ -14508,12 +14508,12 @@
       <c r="D452" t="s">
         <v>1784</v>
       </c>
-      <c r="E452">
+      <c r="E452" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>2.3601378638855874</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1785</v>
       </c>
@@ -14526,12 +14526,12 @@
       <c r="D453" t="s">
         <v>1787</v>
       </c>
-      <c r="E453">
+      <c r="E453" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>4.5778563992366479</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1788</v>
       </c>
@@ -14544,12 +14544,12 @@
       <c r="D454" t="s">
         <v>1791</v>
       </c>
-      <c r="E454">
+      <c r="E454" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>3.5966327801347653</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1792</v>
       </c>
@@ -14562,12 +14562,12 @@
       <c r="D455" t="s">
         <v>1795</v>
       </c>
-      <c r="E455">
+      <c r="E455" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>2.9033128578861702</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>1796</v>
       </c>
@@ -14580,12 +14580,12 @@
       <c r="D456" t="s">
         <v>1799</v>
       </c>
-      <c r="E456">
+      <c r="E456" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>1.552344457636571</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>1800</v>
       </c>
@@ -14598,12 +14598,12 @@
       <c r="D457" t="s">
         <v>1803</v>
       </c>
-      <c r="E457">
+      <c r="E457" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>22.868185653361657</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>1804</v>
       </c>
@@ -14616,12 +14616,12 @@
       <c r="D458" t="s">
         <v>1807</v>
       </c>
-      <c r="E458">
+      <c r="E458" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>7.5124494471286365</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>1808</v>
       </c>
@@ -14634,12 +14634,12 @@
       <c r="D459" t="s">
         <v>1811</v>
       </c>
-      <c r="E459">
+      <c r="E459" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>8.3960929235135424</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>1812</v>
       </c>
@@ -14652,12 +14652,12 @@
       <c r="D460" t="s">
         <v>543</v>
       </c>
-      <c r="E460">
+      <c r="E460" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>1.5309118388458915</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>1815</v>
       </c>
@@ -14670,12 +14670,12 @@
       <c r="D461" t="s">
         <v>1818</v>
       </c>
-      <c r="E461">
+      <c r="E461" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>1.4023865349426883</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>1819</v>
       </c>
@@ -14688,12 +14688,12 @@
       <c r="D462" t="s">
         <v>1822</v>
       </c>
-      <c r="E462">
+      <c r="E462" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>12.317371941355002</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>1823</v>
       </c>
@@ -14706,12 +14706,12 @@
       <c r="D463" t="s">
         <v>1826</v>
       </c>
-      <c r="E463">
+      <c r="E463" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>13.945261141084355</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>1827</v>
       </c>
@@ -14724,12 +14724,12 @@
       <c r="D464" t="s">
         <v>1830</v>
       </c>
-      <c r="E464">
+      <c r="E464" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1839748446186018</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>1831</v>
       </c>
@@ -14742,12 +14742,12 @@
       <c r="D465" t="s">
         <v>1834</v>
       </c>
-      <c r="E465">
+      <c r="E465" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>1.1547572638472796</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1835</v>
       </c>
@@ -14760,12 +14760,12 @@
       <c r="D466" t="s">
         <v>1838</v>
       </c>
-      <c r="E466">
+      <c r="E466" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>9.831724128954674</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1839</v>
       </c>
@@ -14778,12 +14778,12 @@
       <c r="D467" t="s">
         <v>1842</v>
       </c>
-      <c r="E467">
+      <c r="E467" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>3.7543128117748106</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1843</v>
       </c>
@@ -14796,12 +14796,12 @@
       <c r="D468" t="s">
         <v>1846</v>
       </c>
-      <c r="E468">
+      <c r="E468" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>4.8481558409821206</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1847</v>
       </c>
@@ -14814,12 +14814,12 @@
       <c r="D469" t="s">
         <v>1850</v>
       </c>
-      <c r="E469">
+      <c r="E469" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>7.0098559502373563</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1851</v>
       </c>
@@ -14832,12 +14832,12 @@
       <c r="D470" t="s">
         <v>1854</v>
       </c>
-      <c r="E470">
+      <c r="E470" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3177197981505762</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1855</v>
       </c>
@@ -14850,12 +14850,12 @@
       <c r="D471" t="s">
         <v>1598</v>
       </c>
-      <c r="E471">
+      <c r="E471" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>5.7818817998915639</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1858</v>
       </c>
@@ -14868,12 +14868,12 @@
       <c r="D472" t="s">
         <v>1861</v>
       </c>
-      <c r="E472">
+      <c r="E472" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>6.6828191217172357</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1862</v>
       </c>
@@ -14886,12 +14886,12 @@
       <c r="D473" t="s">
         <v>1865</v>
       </c>
-      <c r="E473">
+      <c r="E473" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0468524804968631</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1866</v>
       </c>
@@ -14904,12 +14904,12 @@
       <c r="D474" t="s">
         <v>1606</v>
       </c>
-      <c r="E474">
+      <c r="E474" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>14.872744564052841</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1869</v>
       </c>
@@ -14922,12 +14922,12 @@
       <c r="D475" t="s">
         <v>1872</v>
       </c>
-      <c r="E475">
+      <c r="E475" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>17.282555126666779</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1873</v>
       </c>
@@ -14940,12 +14940,12 @@
       <c r="D476" t="s">
         <v>1876</v>
       </c>
-      <c r="E476">
+      <c r="E476" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3064052016724856</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>1877</v>
       </c>
@@ -14958,12 +14958,12 @@
       <c r="D477" t="s">
         <v>1880</v>
       </c>
-      <c r="E477">
+      <c r="E477" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>4.7389984634205193</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>1881</v>
       </c>
@@ -14976,12 +14976,12 @@
       <c r="D478" t="s">
         <v>1884</v>
       </c>
-      <c r="E478">
+      <c r="E478" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>1.8830846385059512</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1885</v>
       </c>
@@ -14994,12 +14994,12 @@
       <c r="D479" t="s">
         <v>1888</v>
       </c>
-      <c r="E479">
+      <c r="E479" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>8.3507923200587797</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1889</v>
       </c>
@@ -15012,12 +15012,12 @@
       <c r="D480" t="s">
         <v>1892</v>
       </c>
-      <c r="E480">
+      <c r="E480" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>8.0176500453331467</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1893</v>
       </c>
@@ -15030,12 +15030,12 @@
       <c r="D481" t="s">
         <v>1896</v>
       </c>
-      <c r="E481">
+      <c r="E481" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9645165765450239</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1897</v>
       </c>
@@ -15048,12 +15048,12 @@
       <c r="D482" t="s">
         <v>1900</v>
       </c>
-      <c r="E482">
+      <c r="E482" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>1.7936561098733239</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>1901</v>
       </c>
@@ -15066,12 +15066,12 @@
       <c r="D483" t="s">
         <v>1904</v>
       </c>
-      <c r="E483">
+      <c r="E483" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>3.1670927222875274</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1905</v>
       </c>
@@ -15084,12 +15084,12 @@
       <c r="D484" t="s">
         <v>1908</v>
       </c>
-      <c r="E484">
+      <c r="E484" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>16.197543883380259</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1909</v>
       </c>
@@ -15102,12 +15102,12 @@
       <c r="D485" t="s">
         <v>1912</v>
       </c>
-      <c r="E485">
+      <c r="E485" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0779239609022602</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1913</v>
       </c>
@@ -15120,12 +15120,12 @@
       <c r="D486" t="s">
         <v>1916</v>
       </c>
-      <c r="E486">
+      <c r="E486" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>1.0637980523369532</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>1917</v>
       </c>
@@ -15138,12 +15138,12 @@
       <c r="D487" t="s">
         <v>1920</v>
       </c>
-      <c r="E487">
+      <c r="E487" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1644249539151961</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>1921</v>
       </c>
@@ -15156,12 +15156,12 @@
       <c r="D488" t="s">
         <v>1924</v>
       </c>
-      <c r="E488">
+      <c r="E488" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>1.7143764902298586</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>1925</v>
       </c>
@@ -15174,12 +15174,12 @@
       <c r="D489" t="s">
         <v>1928</v>
       </c>
-      <c r="E489">
+      <c r="E489" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>3.3445697348055154</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1929</v>
       </c>
@@ -15192,12 +15192,12 @@
       <c r="D490" t="s">
         <v>1932</v>
       </c>
-      <c r="E490">
+      <c r="E490" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>6.2277433687908577</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>1933</v>
       </c>
@@ -15210,12 +15210,12 @@
       <c r="D491" t="s">
         <v>1936</v>
       </c>
-      <c r="E491">
+      <c r="E491" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>15.037850031027915</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>1937</v>
       </c>
@@ -15228,12 +15228,12 @@
       <c r="D492" t="s">
         <v>1940</v>
       </c>
-      <c r="E492">
+      <c r="E492" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>12.693681048968433</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>1941</v>
       </c>
@@ -15246,12 +15246,12 @@
       <c r="D493" t="s">
         <v>1944</v>
       </c>
-      <c r="E493">
+      <c r="E493" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>2.2207938152595119</v>
-      </c>
-    </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>1945</v>
       </c>
@@ -15264,12 +15264,12 @@
       <c r="D494" t="s">
         <v>1948</v>
       </c>
-      <c r="E494">
+      <c r="E494" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0542594213459866</v>
-      </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1949</v>
       </c>
@@ -15282,12 +15282,12 @@
       <c r="D495" t="s">
         <v>1952</v>
       </c>
-      <c r="E495">
+      <c r="E495" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>1.9418085516901475</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>1953</v>
       </c>
@@ -15300,12 +15300,12 @@
       <c r="D496" t="s">
         <v>1956</v>
       </c>
-      <c r="E496">
+      <c r="E496" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>11.327606364024584</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>1957</v>
       </c>
@@ -15318,12 +15318,12 @@
       <c r="D497" t="s">
         <v>1602</v>
       </c>
-      <c r="E497">
+      <c r="E497" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>1.9539107633623982</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>1960</v>
       </c>
@@ -15336,12 +15336,12 @@
       <c r="D498" t="s">
         <v>1963</v>
       </c>
-      <c r="E498">
+      <c r="E498" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>4.1852130130751997</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>1964</v>
       </c>
@@ -15354,12 +15354,12 @@
       <c r="D499" t="s">
         <v>1967</v>
       </c>
-      <c r="E499">
+      <c r="E499" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>19.945889878297194</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>1968</v>
       </c>
@@ -15372,12 +15372,12 @@
       <c r="D500" t="s">
         <v>1971</v>
       </c>
-      <c r="E500">
+      <c r="E500" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>1.6569094624521301</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>1972</v>
       </c>
@@ -15390,12 +15390,12 @@
       <c r="D501" t="s">
         <v>1974</v>
       </c>
-      <c r="E501">
+      <c r="E501" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>7.9177424592041179</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1975</v>
       </c>
@@ -15408,12 +15408,12 @@
       <c r="D502" t="s">
         <v>1978</v>
       </c>
-      <c r="E502">
+      <c r="E502" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>2.0652053449845762</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1979</v>
       </c>
@@ -15426,12 +15426,12 @@
       <c r="D503" t="s">
         <v>1981</v>
       </c>
-      <c r="E503">
+      <c r="E503" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>17.379203669426104</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1982</v>
       </c>
@@ -15444,9 +15444,9 @@
       <c r="D504" t="s">
         <v>1304</v>
       </c>
-      <c r="E504">
+      <c r="E504" t="e">
         <f t="shared" ca="1" si="7"/>
-        <v>2.4498020977925687</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
